--- a/ПМИ-19_2021.xlsx
+++ b/ПМИ-19_2021.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">11.02</t>
   </si>
   <si>
+    <t xml:space="preserve">18.02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Алексеев Василий Александрович</t>
   </si>
   <si>
@@ -44,13 +47,13 @@
     <t xml:space="preserve">Бережнев Николай Николаевич</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Васильев Александр Николаевич</t>
   </si>
   <si>
     <t xml:space="preserve">Гоголев Алексей Альбертович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Евдокимов Вячеслав Александрович</t>
@@ -339,11 +342,11 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -370,7 +373,9 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -437,10 +442,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -448,10 +456,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -459,10 +470,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,10 +484,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,10 +498,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -492,10 +512,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="U7" s="6"/>
     </row>
@@ -504,10 +527,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="U8" s="6"/>
     </row>
@@ -516,10 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -527,10 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -538,10 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,10 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,10 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,10 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -582,10 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -593,10 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -604,30 +654,35 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="U17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="D19" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20" s="8"/>
     </row>
@@ -638,7 +693,7 @@
       <c r="A24" s="0"/>
       <c r="B24" s="0"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="0"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
       <c r="G24" s="0"/>
@@ -666,8 +721,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,16 +750,22 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,10 +773,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,10 +787,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -734,10 +801,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,10 +815,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -756,10 +829,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -794,10 +870,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,10 +884,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,10 +898,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,10 +912,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,10 +926,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,10 +940,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,10 +954,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,10 +968,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,10 +982,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -896,15 +999,18 @@
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="D19" s="1" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20" s="8"/>
     </row>

--- a/ПМИ-19_2021.xlsx
+++ b/ПМИ-19_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="БА-ПМИ-19-1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -33,6 +33,12 @@
   </si>
   <si>
     <t xml:space="preserve">18.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДЗ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04.03</t>
   </si>
   <si>
     <t xml:space="preserve">Алексеев Василий Александрович</t>
@@ -342,11 +348,11 @@
   </sheetPr>
   <dimension ref="A1:BL24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9921875" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -376,8 +382,12 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -442,13 +452,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -456,13 +472,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,13 +492,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,13 +512,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -498,13 +529,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,13 +546,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="U7" s="6"/>
     </row>
@@ -527,13 +567,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="U8" s="6"/>
     </row>
@@ -542,13 +585,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,13 +602,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -570,13 +622,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -584,13 +639,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -598,13 +656,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,13 +676,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,13 +693,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -640,13 +710,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,24 +727,29 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="U17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -679,10 +757,13 @@
       <c r="D19" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F19" s="1" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M20" s="8"/>
     </row>
@@ -695,7 +776,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
@@ -721,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -753,19 +834,28 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -773,13 +863,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,13 +880,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,13 +900,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,13 +917,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,13 +934,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -843,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -870,13 +978,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,13 +995,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,13 +1012,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -912,13 +1032,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,13 +1049,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -940,13 +1066,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -954,13 +1086,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,13 +1103,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -982,24 +1120,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1" t="n">
         <v>3</v>
@@ -1007,10 +1147,13 @@
       <c r="D19" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F19" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M20" s="8"/>
     </row>

--- a/ПМИ-19_2021.xlsx
+++ b/ПМИ-19_2021.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -349,10 +349,10 @@
   <dimension ref="A1:BL24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.06"/>
@@ -575,6 +575,9 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
